--- a/Universe.xlsx
+++ b/Universe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D035406-3AD2-4EE2-964E-33AEC4535E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA6BF6-3D8D-4B73-B468-098EF41A9B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="750" windowWidth="29260" windowHeight="19090" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9970" yWindow="1260" windowWidth="22740" windowHeight="19090" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="493">
   <si>
     <t>Ticker</t>
   </si>
@@ -1505,13 +1507,40 @@
   </si>
   <si>
     <t xml:space="preserve">Hematologic, cardio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue </t>
+  </si>
+  <si>
+    <t>EV/R&amp;D</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>FCF/Debt</t>
+  </si>
+  <si>
+    <t>Accural Ratio</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,6 +1558,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1553,11 +1596,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1573,10 +1617,29 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1642,6 +1705,138 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="R5">
+            <v>273.68</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="R7">
+            <v>39635.250322799999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="R8">
+            <v>6078.3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="R9">
+            <v>6589</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="R10">
+            <v>40145.950322799996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="Q19">
+            <v>10173.400000000001</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Q22">
+            <v>2231.1000000000004</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49">
+            <v>0.75867263843648203</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AE55">
+            <v>-0.10681127097630803</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="L115">
+            <v>0.25492487479131892</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="J117">
+            <v>0.85200048199041356</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="KarXT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="Q7">
+            <v>179.67</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Q9">
+            <v>6767.7817111499999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Q10">
+            <v>1436.51</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Q11">
+            <v>15.83</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Q12">
+            <v>5347.1017111499996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="P7">
+            <v>224.24700000000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AE29">
+            <v>-0.11868721854561151</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="LYBALVI "/>
     </sheetNames>
     <sheetDataSet>
@@ -1672,14 +1867,35 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="O13">
+            <v>1111.7950000000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="O16">
+            <v>393.84200000000004</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="P35">
+            <v>0.83816110663659882</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AD42">
+            <v>-5.523820852063286E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1718,14 +1934,35 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="P5">
+            <v>517.23500000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="P8">
+            <v>361.57499999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="P23">
+            <v>0.9803454909277215</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AE28">
+            <v>8.2953960578610486E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1764,14 +2001,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1780,36 +2017,49 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Simufilam"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
           <cell r="N4">
-            <v>19.36</v>
+            <v>17.920000000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="N6">
-            <v>1159.3531364800001</v>
+            <v>752.10229248000007</v>
           </cell>
         </row>
         <row r="7">
           <cell r="N7">
-            <v>1002.616</v>
+            <v>168.43799999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="N8">
-            <v>8.7279999999999998</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
           <cell r="N9">
-            <v>165.46513648000013</v>
+            <v>583.66429248000009</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="P8">
+            <v>99.5471</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AD28">
+            <v>1.6331004108856864</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2080,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3135,7 +3385,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3489,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D24E954-91C9-4F5B-9D2A-746629CF6CC6}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3501,14 +3751,16 @@
     <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3530,16 +3782,83 @@
       <c r="H2" s="5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="I2" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <f>[2]Main!$R$5</f>
+        <v>273.68</v>
+      </c>
+      <c r="E3" s="3">
+        <f>[2]Main!$R$7</f>
+        <v>39635.250322799999</v>
+      </c>
+      <c r="F3" s="3">
+        <f>[2]Main!$R$8-[2]Main!$R$9</f>
+        <v>-510.69999999999982</v>
+      </c>
+      <c r="G3" s="3">
+        <f>[2]Main!$R$10</f>
+        <v>40145.950322799996</v>
+      </c>
+      <c r="H3" s="7">
+        <v>45149</v>
+      </c>
+      <c r="I3" s="12">
+        <f>[2]Model!$Q$19</f>
+        <v>10173.400000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <f>G3/[2]Model!$Q$22</f>
+        <v>17.993792444444441</v>
+      </c>
+      <c r="K3" s="11">
+        <f>[2]Model!$AE$55</f>
+        <v>-0.10681127097630803</v>
+      </c>
+      <c r="L3" s="10">
+        <f>[2]Model!$J$49</f>
+        <v>0.75867263843648203</v>
+      </c>
+      <c r="M3" s="13">
+        <f>[2]Model!$L$115</f>
+        <v>0.25492487479131892</v>
+      </c>
+      <c r="N3" s="13">
+        <f>[2]Model!$J$117</f>
+        <v>0.85200048199041356</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>137</v>
       </c>
@@ -3547,18 +3866,54 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C5" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f>[3]Main!$Q$7</f>
+        <v>179.67</v>
+      </c>
+      <c r="E5" s="3">
+        <f>[3]Main!$Q$9</f>
+        <v>6767.7817111499999</v>
+      </c>
+      <c r="F5" s="3">
+        <f>[3]Main!$Q$10-[3]Main!$Q$11</f>
+        <v>1420.68</v>
+      </c>
+      <c r="G5" s="3">
+        <f>[3]Main!$Q$12</f>
+        <v>5347.1017111499996</v>
+      </c>
+      <c r="H5" s="7">
+        <v>45150</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <f>G5/[3]Model!$P$7</f>
+        <v>23.84469674577586</v>
+      </c>
+      <c r="K5" s="11">
+        <f>[3]Model!$AE$29</f>
+        <v>-0.11868721854561151</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>373</v>
       </c>
@@ -3569,26 +3924,45 @@
         <v>370</v>
       </c>
       <c r="D6">
-        <f>[2]Main!$O$5</f>
+        <f>[4]Main!$O$5</f>
         <v>28.05</v>
       </c>
       <c r="E6" s="3">
-        <f>[2]Main!$O$7</f>
+        <f>[4]Main!$O$7</f>
         <v>4671.9725167500001</v>
       </c>
       <c r="F6" s="3">
-        <f>[2]Main!$O$8-[2]Main!$O$9</f>
+        <f>[4]Main!$O$8-[4]Main!$O$9</f>
         <v>439.51400000000001</v>
       </c>
       <c r="G6" s="3">
-        <f>[2]Main!$O$10</f>
+        <f>[4]Main!$O$10</f>
         <v>4232.4585167499999</v>
       </c>
       <c r="H6" s="7">
         <v>45147</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="12">
+        <f>[4]Model!$O$13</f>
+        <v>1111.7950000000001</v>
+      </c>
+      <c r="J6" s="9">
+        <f>G6/[4]Model!$O$16</f>
+        <v>10.746590045627434</v>
+      </c>
+      <c r="K6" s="11">
+        <f>[4]Model!$AD$42</f>
+        <v>-5.523820852063286E-2</v>
+      </c>
+      <c r="L6" s="10">
+        <f>[4]Model!$P$35</f>
+        <v>0.83816110663659882</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>373</v>
       </c>
@@ -3599,26 +3973,45 @@
         <v>372</v>
       </c>
       <c r="D7">
-        <f>[3]Main!$M$4</f>
+        <f>[5]Main!$M$4</f>
         <v>26.59</v>
       </c>
       <c r="E7" s="3">
-        <f>[3]Main!$M$6</f>
+        <f>[5]Main!$M$6</f>
         <v>4353.5503608099998</v>
       </c>
       <c r="F7" s="3">
-        <f>[3]Main!$M$7-[3]Main!$M$8</f>
+        <f>[5]Main!$M$7-[5]Main!$M$8</f>
         <v>325.60000000000002</v>
       </c>
       <c r="G7" s="3">
-        <f>[3]Main!$M$9</f>
+        <f>[5]Main!$M$9</f>
         <v>4027.9503608099994</v>
       </c>
       <c r="H7" s="7">
-        <v>45147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>45150</v>
+      </c>
+      <c r="I7" s="12">
+        <f>[5]Model!$P$5</f>
+        <v>517.23500000000001</v>
+      </c>
+      <c r="J7" s="9">
+        <f>G7/[5]Model!$P$8</f>
+        <v>11.14001344343497</v>
+      </c>
+      <c r="K7" s="11">
+        <f>[5]Model!$AE$28</f>
+        <v>8.2953960578610486E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <f>[5]Model!$P$23</f>
+        <v>0.9803454909277215</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>154</v>
       </c>
@@ -3626,7 +4019,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>373</v>
       </c>
@@ -3637,37 +4030,82 @@
         <v>380</v>
       </c>
       <c r="D9">
-        <f>[4]Main!$P$5</f>
+        <f>[6]Main!$P$5</f>
         <v>21.91</v>
       </c>
       <c r="E9" s="3">
-        <f>[4]Main!$P$7</f>
+        <f>[6]Main!$P$7</f>
         <v>3450.5541047600004</v>
       </c>
       <c r="F9" s="3">
-        <f>[4]Main!$P$8-[4]Main!$P$9</f>
+        <f>[6]Main!$P$8-[6]Main!$P$9</f>
         <v>254.98300000000006</v>
       </c>
       <c r="G9" s="3">
-        <f>[4]Main!$P$10</f>
+        <f>[6]Main!$P$10</f>
         <v>3195.5711047600007</v>
       </c>
       <c r="H9" s="7">
         <v>45147</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f>[7]Main!$N$4</f>
+        <v>17.920000000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <f>[7]Main!$N$6</f>
+        <v>752.10229248000007</v>
+      </c>
+      <c r="F10" s="3">
+        <f>[7]Main!$N$7-[7]Main!$N$8</f>
+        <v>168.43799999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <f>[7]Main!$N$9</f>
+        <v>583.66429248000009</v>
+      </c>
+      <c r="H10" s="7">
+        <v>45150</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <f>G10/[7]Model!$P$8</f>
+        <v>5.8631973455781239</v>
+      </c>
+      <c r="K10" s="14">
+        <f>[7]Model!$AD$28</f>
+        <v>1.6331004108856864</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>259</v>
       </c>
@@ -3675,7 +4113,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -3683,7 +4121,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>157</v>
       </c>
@@ -3691,7 +4129,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>181</v>
       </c>
@@ -3699,7 +4137,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>202</v>
       </c>
@@ -3707,33 +4145,18 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>479</v>
       </c>
       <c r="C16" t="s">
         <v>480</v>
       </c>
-      <c r="D16">
-        <f>[5]Main!$N$4</f>
-        <v>19.36</v>
-      </c>
-      <c r="E16" s="3">
-        <f>[5]Main!$N$6</f>
-        <v>1159.3531364800001</v>
-      </c>
-      <c r="F16" s="3">
-        <f>[5]Main!$N$7-[5]Main!$N$8</f>
-        <v>993.88800000000003</v>
-      </c>
-      <c r="G16" s="3">
-        <f>[5]Main!$N$9</f>
-        <v>165.46513648000013</v>
-      </c>
-      <c r="H16" s="7">
-        <v>45148</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3741,7 +4164,9 @@
     <hyperlink ref="B7" r:id="rId1" xr:uid="{2C03C8F5-7A14-45E9-888D-DF2A5AD2545D}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{C6BAE551-9083-4FC2-88A3-CA21C57B50D7}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{EC85B984-B2CC-46A6-87AC-C2FD00897FAE}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{C219A24E-AD88-4D2C-BC97-0A3CA520B286}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{5E0F838E-87DB-4CBE-88D9-691D12E1D33D}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{049BB806-17A0-48BA-A29A-42AB6B442F86}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{FE2240AB-7368-48D3-9531-D5314E1D56EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4407,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074D6CAB-2B42-4441-A5FC-2BE5289C7DD1}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Universe.xlsx
+++ b/Universe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA6BF6-3D8D-4B73-B468-098EF41A9B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90100292-4E3A-499A-97D9-3BEE65DE8044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9970" yWindow="1260" windowWidth="22740" windowHeight="19090" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="950" windowWidth="22740" windowHeight="19090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1601,7 +1602,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,6 +1634,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1822,7 +1826,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2059,7 +2063,51 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="O5">
+            <v>152.18</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="O7">
+            <v>268604.8037624</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="O8">
+            <v>8766</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="O9">
+            <v>61015</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="O10">
+            <v>320853.8037624</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3384,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE0295E-058F-42E7-A670-9E1A0CD7D0B7}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3436,16 +3484,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
+      <c r="D3">
+        <f>[8]Main!$O$5</f>
+        <v>152.18</v>
+      </c>
+      <c r="E3" s="3">
+        <f>[8]Main!$O$7</f>
+        <v>268604.8037624</v>
+      </c>
+      <c r="F3" s="3">
+        <f>[8]Main!$O$8-[8]Main!$O$9</f>
+        <v>-52249</v>
+      </c>
+      <c r="G3" s="3">
+        <f>[8]Main!$O$10</f>
+        <v>320853.8037624</v>
+      </c>
+      <c r="H3" s="15">
+        <v>45151</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -3732,6 +3795,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2938EC82-64F0-4910-9350-7694790C5763}"/>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{CFEC4A3B-02EE-49CD-B521-C8847D0BC36F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{07185814-3EA0-4423-BE22-F0F3B5E4D5E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3741,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D24E954-91C9-4F5B-9D2A-746629CF6CC6}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
